--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:51:23+00:00</t>
+    <t>2024-05-23T13:22:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:22:54+00:00</t>
+    <t>2024-05-28T14:23:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:23:52+00:00</t>
+    <t>2024-06-03T14:45:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1236,7 +1236,7 @@
     <t>Bundle.entry:organizationAgregateurSOS.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-sos-organization-aggregator}
+    <t xml:space="preserve">Organization {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-cpts-organization-aggregator}
 </t>
   </si>
   <si>
@@ -1665,7 +1665,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="101.55859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:45:40+00:00</t>
+    <t>2024-06-05T16:09:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T16:09:02+00:00</t>
+    <t>2024-06-06T08:13:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T08:13:16+00:00</t>
+    <t>2024-06-06T12:20:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T12:20:34+00:00</t>
+    <t>2024-06-06T13:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:15:28+00:00</t>
+    <t>2024-06-06T13:38:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:38:29+00:00</t>
+    <t>2024-06-06T13:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:50:16+00:00</t>
+    <t>2024-06-06T15:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T15:04:41+00:00</t>
+    <t>2024-06-10T15:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T15:12:05+00:00</t>
+    <t>2024-06-11T07:35:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T07:35:27+00:00</t>
+    <t>2024-06-12T14:11:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1015,7 +1015,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Schedule {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-sos-schedule-aggregator}
+    <t xml:space="preserve">Schedule {http://sas.fr/fhir/StructureDefinition/FrScheduleAgregateur}
 </t>
   </si>
   <si>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12T14:11:34+00:00</t>
+    <t>2024-06-12T15:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12T15:35:22+00:00</t>
+    <t>2024-06-13T07:18:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T07:18:59+00:00</t>
+    <t>2024-06-14T14:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T14:49:07+00:00</t>
+    <t>2024-06-17T12:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1015,7 +1015,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Schedule {http://sas.fr/fhir/StructureDefinition/FrScheduleAgregateur}
+    <t xml:space="preserve">Schedule {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-sos-schedule-aggregator}
 </t>
   </si>
   <si>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T12:56:05+00:00</t>
+    <t>2024-06-17T13:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:30:51+00:00</t>
+    <t>2024-06-17T14:24:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:24:56+00:00</t>
+    <t>2024-06-17T17:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T17:07:43+00:00</t>
+    <t>2024-06-18T08:49:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T08:49:52+00:00</t>
+    <t>2024-06-18T09:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T09:05:56+00:00</t>
+    <t>2024-06-18T15:03:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T15:03:51+00:00</t>
+    <t>2024-06-19T08:58:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T08:58:37+00:00</t>
+    <t>2024-06-19T13:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T13:37:34+00:00</t>
+    <t>2024-06-20T07:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T07:27:39+00:00</t>
+    <t>2024-06-20T12:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T12:10:02+00:00</t>
+    <t>2024-06-20T15:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:16:37+00:00</t>
+    <t>2024-06-20T15:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:30:31+00:00</t>
+    <t>2024-06-20T15:44:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:44:13+00:00</t>
+    <t>2024-06-20T16:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T16:03:01+00:00</t>
+    <t>2024-06-21T08:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T08:14:05+00:00</t>
+    <t>2024-06-21T08:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T08:48:47+00:00</t>
+    <t>2024-06-26T17:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T17:15:09+00:00</t>
+    <t>2024-06-27T11:51:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T11:51:58+00:00</t>
+    <t>2024-06-27T12:50:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:50:32+00:00</t>
+    <t>2024-06-27T13:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:56:11+00:00</t>
+    <t>2024-07-01T09:27:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1236,7 +1236,7 @@
     <t>Bundle.entry:organizationAgregateurSOS.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-cpts-organization-aggregator}
+    <t xml:space="preserve">Organization {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-sos-organization-aggregator}
 </t>
   </si>
   <si>
@@ -1665,7 +1665,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.55859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.74609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:27:46+00:00</t>
+    <t>2024-07-01T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
